--- a/spring-functionaltest-selenium/src/test/resources/testdata/fldw/日本語ファイル名.xlsx
+++ b/spring-functionaltest-selenium/src/test/resources/testdata/fldw/日本語ファイル名.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>銀行</t>
+  </si>
+  <si>
+    <t>Tue Oct 18 16:57:31 JST 2022</t>
   </si>
   <si>
     <t>新規口座開設申込書</t>
@@ -64,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -76,6 +79,10 @@
       <name val="Calibri"/>
       <sz val="18.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -101,8 +108,11 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
+      <patternFill/>
+    </fill>
+    <fill>
       <patternFill>
-        <bgColor indexed="64"/>
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -111,14 +121,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -126,24 +130,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -156,6 +168,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -170,6 +183,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium"/>
@@ -214,26 +228,37 @@
     </border>
     <border>
       <left style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -246,6 +271,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -260,20 +286,27 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -282,9 +315,11 @@
       <right>
         <color indexed="8"/>
       </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -299,6 +334,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium"/>
@@ -344,40 +380,51 @@
       </bottom>
     </border>
     <border>
-      <right style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -392,32 +439,40 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -432,6 +487,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <right style="medium"/>
@@ -480,41 +536,49 @@
     <border>
       <left style="medium"/>
       <right style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -529,33 +593,40 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -570,6 +641,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium"/>
@@ -621,74 +693,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment indent="1" horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="left" indent="1" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="left" indent="1" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="centerContinuous" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="centerContinuous" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="centerContinuous" indent="0" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" indent="1" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" indent="1" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="centerContinuous" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="centerContinuous" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="centerContinuous" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -700,7 +775,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -711,111 +786,117 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
-        <v>1</v>
+      <c r="B5" t="s" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="3">
+      <c r="C8" t="s" s="4">
         <v>3</v>
       </c>
+      <c r="D8" t="s" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="3">
-        <v>4</v>
+      <c r="B10" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s" s="8">
+      <c r="C13" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
+      <c r="D13" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14">
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="10"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="C15" s="18"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16">
-      <c r="C16" t="s" s="16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s" s="8">
+      <c r="C16" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
+      <c r="D16" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17">
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="10"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18">
-      <c r="C18" s="18"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19">
-      <c r="C19" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s" s="8">
+      <c r="C19" t="s" s="17">
         <v>10</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="D19" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20">
-      <c r="C20" s="18"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
-        <v>11</v>
+      <c r="B22" t="s" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="s" s="4">
-        <v>12</v>
+      <c r="C25" t="s" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="s" s="4">
-        <v>13</v>
+      <c r="C26" t="s" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s" s="4">
-        <v>14</v>
+      <c r="C27" t="s" s="5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="15">
     <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B10:I11"/>
